--- a/biology/Zoologie/Cuculidae/Cuculidae.xlsx
+++ b/biology/Zoologie/Cuculidae/Cuculidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cuculidae (ou cuculidés en français) sont une famille d'oiseaux constituée de 32 genres et de 146 espèces existantes. Ces oiseaux ont pour nom coucou, malcoha, calobate, coua, coucal, coulicou, tacco, piaye, ani, guira et géocoucou.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oiseaux élancés, de taille petite à moyenne (de 16 à 70 cm), la plupart au bec plutôt étroit et à longue queue. Ils sont généralement sombres dessus et clairs dessous ; quelques espèces ont le plumage entièrement foncé.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont cosmopolites et fréquentent principalement les forêts et les zones boisées.
 </t>
@@ -573,7 +589,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Alan P. Peterson, les cuculidés sont constitués de cinq sous-familles (ordre phylogénique) :
 sous-famille Crotophaginae (4 espèces)
@@ -614,7 +632,7 @@
 genre Hierococcyx (8 espèces)
 genre Cuculus (11 espèces)
 genre Nannococcyx (1 espèce)
-Cuculiformes vivants de Sorenson &amp; Payne (2005)[1] :
+Cuculiformes vivants de Sorenson &amp; Payne (2005) :
 </t>
         </is>
       </c>
@@ -643,7 +661,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique correspondant à celui de Peterson) :
 Espèces par ordre phylogénique
